--- a/results/stock.xlsx
+++ b/results/stock.xlsx
@@ -479,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>107.1081684918362</v>
+        <v>149.2866390832741</v>
       </c>
       <c r="F2" t="n">
-        <v>107.1081684918362</v>
+        <v>149.2866390832741</v>
       </c>
     </row>
     <row r="3">
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>87.36934782196323</v>
+        <v>140.2214236083316</v>
       </c>
       <c r="F3" t="n">
-        <v>87.36934782196323</v>
+        <v>140.2214236083316</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>76.06180390378751</v>
+        <v>142.435132491852</v>
       </c>
       <c r="F4" t="n">
-        <v>76.06180390378751</v>
+        <v>142.435132491852</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>70.86699304288668</v>
+        <v>147.5798908804973</v>
       </c>
       <c r="F5" t="n">
-        <v>70.86699304288668</v>
+        <v>147.5798908804973</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>69.2543271929476</v>
+        <v>151.4571285114751</v>
       </c>
       <c r="F6" t="n">
-        <v>69.2543271929476</v>
+        <v>151.4571285114751</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.41568227228855</v>
+        <v>154.5689375646052</v>
       </c>
       <c r="F7" t="n">
-        <v>69.41568227228855</v>
+        <v>154.5689375646052</v>
       </c>
     </row>
     <row r="8">
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>73.71641951994955</v>
+        <v>159.0765148714655</v>
       </c>
       <c r="F8" t="n">
-        <v>73.71641951994955</v>
+        <v>159.0765148714655</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>79.37002861978903</v>
+        <v>163.5840921783257</v>
       </c>
       <c r="F9" t="n">
-        <v>79.37002861978903</v>
+        <v>163.5840921783257</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>87.29543173191057</v>
+        <v>168.091669485186</v>
       </c>
       <c r="F10" t="n">
-        <v>87.29543173191057</v>
+        <v>168.091669485186</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>96.19077978008966</v>
+        <v>172.5992467920462</v>
       </c>
       <c r="F11" t="n">
-        <v>96.19077978008966</v>
+        <v>172.5992467920462</v>
       </c>
     </row>
   </sheetData>

--- a/results/stock.xlsx
+++ b/results/stock.xlsx
@@ -570,19 +570,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.8425</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.8425</v>
       </c>
       <c r="E7" t="n">
-        <v>154.5689375646052</v>
+        <v>149.2866390832741</v>
       </c>
       <c r="F7" t="n">
-        <v>154.5689375646052</v>
+        <v>156.1291390832741</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.416192502625803</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.416192502625803</v>
       </c>
       <c r="E8" t="n">
-        <v>159.0765148714655</v>
+        <v>140.2214236083316</v>
       </c>
       <c r="F8" t="n">
-        <v>159.0765148714655</v>
+        <v>145.6376161109574</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4.287196379320418</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.287196379320418</v>
       </c>
       <c r="E9" t="n">
-        <v>163.5840921783257</v>
+        <v>142.435132491852</v>
       </c>
       <c r="F9" t="n">
-        <v>163.5840921783257</v>
+        <v>146.7223288711724</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.130537579387612</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.130537579387612</v>
       </c>
       <c r="E10" t="n">
-        <v>168.091669485186</v>
+        <v>149.2866390832741</v>
       </c>
       <c r="F10" t="n">
-        <v>168.091669485186</v>
+        <v>155.4171766626617</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5.2436374387351</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.2436374387351</v>
       </c>
       <c r="E11" t="n">
-        <v>172.5992467920462</v>
+        <v>149.2866390832741</v>
       </c>
       <c r="F11" t="n">
-        <v>172.5992467920462</v>
+        <v>154.5302765220092</v>
       </c>
     </row>
   </sheetData>

--- a/results/stock.xlsx
+++ b/results/stock.xlsx
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1146999.278263127</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1146999.278263127</v>
       </c>
       <c r="E2" t="n">
-        <v>149.2866390832741</v>
+        <v>49458556.73467615</v>
       </c>
       <c r="F2" t="n">
-        <v>149.2866390832741</v>
+        <v>50605556.01293928</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1525165.880659537</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1525165.880659537</v>
       </c>
       <c r="E3" t="n">
-        <v>140.2214236083316</v>
+        <v>48485031.07559408</v>
       </c>
       <c r="F3" t="n">
-        <v>140.2214236083316</v>
+        <v>50010196.95625361</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1819700.853357395</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1819700.853357395</v>
       </c>
       <c r="E4" t="n">
-        <v>142.435132491852</v>
+        <v>47982073.2953876</v>
       </c>
       <c r="F4" t="n">
-        <v>142.435132491852</v>
+        <v>49801774.14874499</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1901179.583824972</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1901179.583824972</v>
       </c>
       <c r="E5" t="n">
-        <v>147.5798908804973</v>
+        <v>47931184.59034887</v>
       </c>
       <c r="F5" t="n">
-        <v>147.5798908804973</v>
+        <v>49832364.17417384</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1943462.411646292</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1943462.411646292</v>
       </c>
       <c r="E6" t="n">
-        <v>151.4571285114751</v>
+        <v>47894441.1993427</v>
       </c>
       <c r="F6" t="n">
-        <v>151.4571285114751</v>
+        <v>49837903.61098899</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.8425</v>
+        <v>1854427.755306635</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.8425</v>
+        <v>1854427.755306635</v>
       </c>
       <c r="E7" t="n">
-        <v>149.2866390832741</v>
+        <v>47785454.00699076</v>
       </c>
       <c r="F7" t="n">
-        <v>156.1291390832741</v>
+        <v>49639881.76229739</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.416192502625803</v>
+        <v>1944765.397619904</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5.416192502625803</v>
+        <v>1944765.397619904</v>
       </c>
       <c r="E8" t="n">
-        <v>140.2214236083316</v>
+        <v>48081313.03371169</v>
       </c>
       <c r="F8" t="n">
-        <v>145.6376161109574</v>
+        <v>50026078.43133159</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>4.287196379320418</v>
+        <v>1618751.847318216</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.287196379320418</v>
+        <v>1618751.847318216</v>
       </c>
       <c r="E9" t="n">
-        <v>142.435132491852</v>
+        <v>48395835.40924136</v>
       </c>
       <c r="F9" t="n">
-        <v>146.7223288711724</v>
+        <v>50014587.25655958</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.130537579387612</v>
+        <v>1281538.70612917</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.130537579387612</v>
+        <v>1281538.70612917</v>
       </c>
       <c r="E10" t="n">
-        <v>149.2866390832741</v>
+        <v>49234707.21529362</v>
       </c>
       <c r="F10" t="n">
-        <v>155.4171766626617</v>
+        <v>50516245.92142279</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5.2436374387351</v>
+        <v>1647603.39473688</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.2436374387351</v>
+        <v>1647603.39473688</v>
       </c>
       <c r="E11" t="n">
-        <v>149.2866390832741</v>
+        <v>50711989.88827336</v>
       </c>
       <c r="F11" t="n">
-        <v>154.5302765220092</v>
+        <v>52359593.28301024</v>
       </c>
     </row>
   </sheetData>
